--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251014_201331.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251014_201331.xlsx
@@ -4803,7 +4803,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
